--- a/ig/amelioration-mapping/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:47:28+00:00</t>
+    <t>2024-01-19T15:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T15:31:36+00:00</t>
+    <t>2024-01-22T16:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T16:15:43+00:00</t>
+    <t>2024-01-24T16:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:02:26+00:00</t>
+    <t>2024-02-06T12:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -325,7 +325,7 @@
     <t>typeTerritorialDivision</t>
   </si>
   <si>
-    <t>type</t>
+    <t>type : JDV-J223-TypeDivisionTerritoriale-ROR</t>
   </si>
   <si>
     <t>Extension.extension:typeTerritorialDivision.id</t>
@@ -400,7 +400,7 @@
     <t>codeTerritorialDivision</t>
   </si>
   <si>
-    <t>code</t>
+    <t>code : JDV-J124-Commune, JDV-J248-DepartementOM-ROR, JDV-J237-RegionOM-ROR, JDV-J249-TerritoireSante-ROR, JDV-J247-Pays-ROR</t>
   </si>
   <si>
     <t>Extension.extension:codeTerritorialDivision.id</t>
@@ -783,7 +783,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="73.81640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="125.484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/amelioration-mapping/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:55:52+00:00</t>
+    <t>2024-02-16T10:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
